--- a/src/cloud/tests/iExpense/iExpense_India/AuditingExpenseReportITC_Test.xlsx
+++ b/src/cloud/tests/iExpense/iExpense_India/AuditingExpenseReportITC_Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DriveD\SVN\InternalMigration\SeleniumFramework_Cloud_ITC\src\cloud\tests\iExpense_India\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbethi\Documents\GitHub\SeleniumFramework_2021B\src\cloud\tests\iExpense\iExpense_India\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DEC89F-65DE-45E3-9DB5-2E272320B740}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA71C0C-6C54-430F-BC51-58FD2C29961B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Execute</t>
   </si>
@@ -61,15 +61,9 @@
     <t>{password}</t>
   </si>
   <si>
-    <t>Navigate_More</t>
-  </si>
-  <si>
     <t>appl</t>
   </si>
   <si>
-    <t>{iExpense_India_username}</t>
-  </si>
-  <si>
     <t>AuditingExpenseReportITC</t>
   </si>
   <si>
@@ -79,20 +73,74 @@
     <t>Date</t>
   </si>
   <si>
-    <t>4/30/21</t>
-  </si>
-  <si>
     <t>BusinessUnit</t>
   </si>
   <si>
     <t>IT Convergence India</t>
+  </si>
+  <si>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>ReportStatus</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>ReportSubmissionDate</t>
+  </si>
+  <si>
+    <t>ExpenseAuditor</t>
+  </si>
+  <si>
+    <t>AssignedToAuditor</t>
+  </si>
+  <si>
+    <t>SavedSearch</t>
+  </si>
+  <si>
+    <t>Unassigned Expense Reports</t>
+  </si>
+  <si>
+    <t>AuditType</t>
+  </si>
+  <si>
+    <t>Automatic approval</t>
+  </si>
+  <si>
+    <t>ER0028850533</t>
+  </si>
+  <si>
+    <t>ER0028850538</t>
+  </si>
+  <si>
+    <t>{iExpense_US_username}</t>
+  </si>
+  <si>
+    <t>Expense Reports Pending Approval</t>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>No Receipts Required Pending Approval</t>
+  </si>
+  <si>
+    <t>T03</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Pending manager approval</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,24 +149,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,44 +197,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,31 +555,38 @@
     <col min="6" max="6" width="0.81640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.7265625" style="3" customWidth="1"/>
     <col min="8" max="8" width="0.81640625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="21.08984375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.1796875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="0.81640625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="3"/>
+    <col min="9" max="17" width="21.08984375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="17.1796875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="0.81640625" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="G1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -563,48 +596,150 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>13</v>
+      <c r="N2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>14</v>
+      <c r="G3"/>
+      <c r="I3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="6" t="str">
+        <f ca="1">TEXT(TODAY(), "m-d-yy")</f>
+        <v>6-14-21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C5" s="5"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4"/>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5"/>
+      <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="J6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
